--- a/src/uploads/admin.xlsx
+++ b/src/uploads/admin.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15417" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17072" uniqueCount="1366">
   <si>
     <t xml:space="preserve">201PT037</t>
   </si>
@@ -116,6 +116,9 @@
     <t xml:space="preserve">201HO056</t>
   </si>
   <si>
+    <t xml:space="preserve">Question Number</t>
+  </si>
+  <si>
     <t xml:space="preserve">Audit Parameter Question</t>
   </si>
   <si>
@@ -158,6 +161,9 @@
     <t xml:space="preserve">Criticality</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0001</t>
+  </si>
+  <si>
     <t xml:space="preserve">is the Diesel Consumption (Generator) register maintained?</t>
   </si>
   <si>
@@ -191,28 +197,34 @@
     <t xml:space="preserve">High</t>
   </si>
   <si>
+    <t xml:space="preserve">Quarterly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annually</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is the EDC Machine Daily Settlement Reports Files/Record available for Kare? The reports need to handover to accounts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YES/NO/NOT APPLICABLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POS</t>
+  </si>
+  <si>
     <t xml:space="preserve">Quaterly</t>
   </si>
   <si>
-    <t xml:space="preserve">Medium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quarterly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Annually</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is the EDC Machine Daily Settlement Reports Files/Record available for Kare? The reports need to handover to accounts.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YES/NO/NOT APPLICABLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POS</t>
+    <t xml:space="preserve">OP0003</t>
   </si>
   <si>
     <t xml:space="preserve">Is all Ancillaries staff attendance marked on biomatric ?</t>
@@ -230,6 +242,9 @@
     <t xml:space="preserve">Low</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0004</t>
+  </si>
+  <si>
     <t xml:space="preserve">5s concept for consumables &amp; chemicals storage (sort, set in order,shine,standardize &amp; sustain)</t>
   </si>
   <si>
@@ -242,6 +257,9 @@
     <t xml:space="preserve">Daily</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0005</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Fine collection register Maintained</t>
   </si>
   <si>
@@ -254,15 +272,24 @@
     <t xml:space="preserve">Weekly</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0006</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Library issue books maintained</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0007</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Accession Register maintained?(Physical Verification of the titles)</t>
   </si>
   <si>
     <t xml:space="preserve">Medium </t>
   </si>
   <si>
+    <t xml:space="preserve">OP0008</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Food Lab Test Report available &amp; updated?</t>
   </si>
   <si>
@@ -275,141 +302,258 @@
     <t xml:space="preserve">Records &amp; files</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0009</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Kitchen Equipment Inventory Record available &amp;updated?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0010</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Food Committee Tasting Feedback Register available &amp; Updated on daily basis except sunday?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0011</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Cafeteria Incident Log Book available &amp; Updated?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0012</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Pre-Primary Snacks Menu displayed on the Cafeteria Notice Board?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0013</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Primary &amp; Secondary Snacks Menu displayed on the Cafeteria Notice Board?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0014</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Primary &amp; Secondary Lunch Menu displayed on the Cafeteria Notice Board?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0015</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Dough Kneader clean &amp; Maintained ?</t>
   </si>
   <si>
     <t xml:space="preserve">Hygiene</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0016</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Wet Masala Grinder clean &amp; Maintained ?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0017</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Pot Rack clean &amp; Maintained ?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0018</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Chappati Plate with Puffer clean &amp; Maintained ?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0019</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Dish Rack clean &amp; Maintained ?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0020</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Mixer/Grinder clean &amp; Maintained ?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0021</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Idli Steamer clean &amp; Maintained ?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0022</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Triple Burner Indian Range (LPG) clean &amp; Maintained ?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0023</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Two Burner Indian Range (LPG) clean &amp; Maintained ?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0024</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Display Counter clean &amp; Maintained ?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0025</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Pot wash area clean post kitchen operations?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0026</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is there Dry &amp; Wet Garbage disposal maintained?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0027</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Table-Cafeteria Big clean &amp; Maintained?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0028</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Table-Cafeteria small clean &amp; Maintained?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0029</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is CHAIR-Cafeteria clean &amp; Maintained ?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0030</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Drinking water area clean &amp; Maintained ?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0031</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the fire extinguisher present?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0032</t>
+  </si>
+  <si>
     <t xml:space="preserve">As the bain marie clean &amp; maintained ?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0033</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the single burner indian range clean &amp; maintained ?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0034</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the three sink unit clean &amp; maintained ?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0035</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the vertical refrigerator clean &amp; maintained ?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0036</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the vertical deep freezer clean &amp; maintained ?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0037</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the pulveriser clean &amp; maintained ?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0038</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the dumping trolley clean &amp; maintained ?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0039</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the onion/potato trolley clean &amp; maintained ?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0040</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the microwave oven clean &amp; maintained ?</t>
   </si>
   <si>
     <t xml:space="preserve">Annual </t>
   </si>
   <si>
+    <t xml:space="preserve">OP0041</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the chair cafeteria small clean &amp; maintained ?</t>
   </si>
   <si>
     <t xml:space="preserve">Half Yearly </t>
   </si>
   <si>
+    <t xml:space="preserve">OP0042</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the daily consumption report available &amp; updated?</t>
   </si>
   <si>
     <t xml:space="preserve">Daily </t>
   </si>
   <si>
+    <t xml:space="preserve">OP0043</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the dosa plate clean &amp; maintained ?</t>
   </si>
   <si>
     <t xml:space="preserve">Monthly </t>
   </si>
   <si>
+    <t xml:space="preserve">OP0044</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the work table shelf clean &amp; maintained ?</t>
   </si>
   <si>
     <t xml:space="preserve">Half Yearly</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0045</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the potato peeler machine clean &amp; maintained?</t>
   </si>
   <si>
     <t xml:space="preserve">Quarterly </t>
   </si>
   <si>
+    <t xml:space="preserve">OP0046</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the exhaust hood clean &amp; maintained ?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0047</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Transformer are serviced in last one year , to be checked with records</t>
   </si>
   <si>
@@ -422,456 +566,882 @@
     <t xml:space="preserve">Electrical panel</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0048</t>
+  </si>
+  <si>
     <t xml:space="preserve">Are current evacuation maps prominently posted on each floor, with evacuation routes clearly identified?</t>
   </si>
   <si>
     <t xml:space="preserve">No</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0049</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the emergency exit which leads to the exterior of the building free from any vehicle parked or materials stored?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0050</t>
+  </si>
+  <si>
     <t xml:space="preserve">Does the stair case has floor numbers at the respective landings?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0051</t>
+  </si>
+  <si>
     <t xml:space="preserve">Are drills conducted- half yearly basis</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0052</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fire Hydrant's are operational / tested on periodic basis and records available " Hose reals / Hydrants / fire Hose"</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0053</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the NRV system working?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0054</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Sump pits / Under Ground Tanks are covered / secured properly?</t>
   </si>
   <si>
     <t xml:space="preserve">Site Infra</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0055</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Sump pits / drainage channels / gutters  are cleaned / and free of odor?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0056</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Plumbing pipes are supported and slope maintained?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0057</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the DWS (Drinking water sysytem)/ FWS(Flushing water system) plumbing system operational without any leakage?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0058</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Schematic plan / SLD displayed near relevant plumbing system?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0059</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Plumbing pipe are marked and color coded?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0060</t>
+  </si>
+  <si>
     <t xml:space="preserve">Does all indoor electrical panels has an ventilation provision ( Natural/ Forced )?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0061</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Outdoor light fixtures are having  IP66 protection</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0062</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Maintenance records available for last three months for all Power Factor banks</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0063</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Electrical feeders are labeled " incoming from and feeding to "</t>
   </si>
   <si>
     <t xml:space="preserve">Yearly</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0064</t>
+  </si>
+  <si>
     <t xml:space="preserve">Are cables secured with proper glands in all Electrical panels / DB?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0065</t>
+  </si>
+  <si>
     <t xml:space="preserve">cables entry window / gaps are sealed in electrical rooms</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0066</t>
+  </si>
+  <si>
     <t xml:space="preserve">All the electrical circuits are protected with ELCB / RCCB</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0067</t>
+  </si>
+  <si>
     <t xml:space="preserve">All alternate power backup system for emergency lighting ( Inverters / UPS ) working , physical observation</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0068</t>
+  </si>
+  <si>
     <t xml:space="preserve">S.O.P are available near electrical installations</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0069</t>
+  </si>
+  <si>
     <t xml:space="preserve">Electrical insulating mats available near  HT / LT panels</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0070</t>
+  </si>
+  <si>
     <t xml:space="preserve">HT &amp; LT ( ACB / VCB / LBS ) breakers serviced in last one year , to be checked with records</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0071</t>
+  </si>
+  <si>
     <t xml:space="preserve">Authorized access provision implemented for HT / LT area</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0072</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Sub-station approach path clear from unwanted material?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0073</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Local Govt. Body - Swimming pool operations approval from Municipal corporation valid &amp; not expired?</t>
   </si>
   <si>
     <t xml:space="preserve">Compliance</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0074</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is there Electrical Inspector of the State Govt's PWD - D. G. Licence available?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0075</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Electrical Inspector (Lift) of the State Govt's PWD - Lift Licences valid &amp; not expired?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0076</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is there Local Govt. Body - Building OC</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0077</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is there Final Fire NOC from Chief Fire Officer available?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0078</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is there Approved building plans by the Chief fire Officer available?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0079</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is there Approved building plans by the Local Govt. Body available?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0080</t>
+  </si>
+  <si>
     <t xml:space="preserve">Local Govt. Body - Structural Stability Certificate valid &amp; not expired</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0081</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is there Land Revenue &amp; Records Dept. of the Local Govt. Body - 7/ 12 extract available?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0082</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is there Land Revenue &amp; Records Dept. of the Local Govt. Body - Demarcation plan available?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0083</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Monthly Electricity Consumption Analysis report available? </t>
   </si>
   <si>
+    <t xml:space="preserve">OP0084</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Monthly Water Consumption Analysis report available?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0085</t>
+  </si>
+  <si>
     <t xml:space="preserve">Are the Water Testing Report filed?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0086</t>
+  </si>
+  <si>
     <t xml:space="preserve">Are the Electricity &amp; PF Reading maintained?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0087</t>
+  </si>
+  <si>
     <t xml:space="preserve">Are the Water Reading / tanker register maintained?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0088</t>
+  </si>
+  <si>
     <t xml:space="preserve">Are the Maintenance Register / complaint book maintained?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0089</t>
+  </si>
+  <si>
     <t xml:space="preserve">Are the Maintenance History Cards of Equipment's available?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0090</t>
+  </si>
+  <si>
     <t xml:space="preserve">Are the 52 week Service Schedule displayed?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0091</t>
+  </si>
+  <si>
     <t xml:space="preserve">Are the Authorised person List Displayed?</t>
   </si>
   <si>
     <t xml:space="preserve">Quaterly </t>
   </si>
   <si>
+    <t xml:space="preserve">OP0092</t>
+  </si>
+  <si>
     <t xml:space="preserve">Are the List of AMC maintained?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0093</t>
+  </si>
+  <si>
     <t xml:space="preserve">Maintenance Contract copies filed in Maintenance Contract File</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0094</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Chiller plant log book filled &amp; signed by Facilities Manager?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0095</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the cooling tower being able to maintain the inlet water temp. at &lt;32 Degree celisus?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0096</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the cooling tower sump cleaned &amp; not filled with dust / scale</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0097</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Cooling tower external body cleaned &amp; no alge growth found?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0098</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the single point lessions , over valves / panels displayed?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0099</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is there any water leakage from Chiller / pumps / pipe lines / valves?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0100</t>
+  </si>
+  <si>
     <t xml:space="preserve">Are all Pumps ( Primary , secondary , Condenser , Chilled water make up ) aviable &amp; in working condition?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0101</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is all Chiller history card being maintained?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0102</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is all Chiller condenser got cleaned in last one year?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0103</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is all Chiller condenser approch temp. maintained below 2 Degree Celsius?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0104</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is SOP ( Standard operating procedure ) available &amp; displayed near Chiller Plant?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0105</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Lift service reports available &amp; filed properly</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0106</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is RO Plant Preventive maintenance is carried out quarterly as per 52 week service schdule</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0107</t>
+  </si>
+  <si>
     <t xml:space="preserve">Are all chillers working?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0108</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Vendor manpower available at STP plant and attendence muster is being maintained</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0109</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the STP log book filled with all parameters &amp; signed by Lead facilities manager</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0110</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is STP treated water service reports avaible for last three months &amp; filed properly</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0111</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is STP plant chemical sufficuient Qty. available &amp; Stock register being maintained</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0112</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the STP treated water clear &amp; doesn’t have any odur</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0113</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is there a smell / Bad Odour in STP plant</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0114</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the STP plant operational &amp; in working condition</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0115</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is RO plant chemical sufficuient Qty. available &amp; Stock register being maintained</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0116</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is RO plant structure in healthy condition and not rusted</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0117</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is there a spillage / water leakage from RO plant/ UV System</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0118</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the RO plant / UV System working and operational</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0119</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the RO plant room / area cleaned &amp; maintained</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0120</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is all Earth pits values are &lt; 2 Ohm, Latest Earth pit reports to be reffered</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0121</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is all Earth pits chamber covers intact &amp; not loose</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0122</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is all earth pits are labeled for relevent use e.g Transformer,DG,Lightining arresters</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0123</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Lift service reports available as per Contract &amp; filed properly</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0124</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the PF being Maintained &gt;0.95 , last month bill to be checked</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0125</t>
+  </si>
+  <si>
     <t xml:space="preserve">PF Penalty being charged (Yes or No) in last month bill</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0126</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is there a spillage / leak of oil from transformer</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0127</t>
+  </si>
+  <si>
     <t xml:space="preserve">Standard Oil level Maintained</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0128</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cleanliness of the Transformer Yard</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0129</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is all AC's are in working condition &amp; not in breakdown more than 3 days on the day of Audit</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0130</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is all AC's got serviced in last one quarter and 52 week check master is being updated</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0131</t>
+  </si>
+  <si>
     <t xml:space="preserve">Display of emergency contact number inside Lift?</t>
   </si>
   <si>
     <t xml:space="preserve">Weekly </t>
   </si>
   <si>
+    <t xml:space="preserve">OP0132</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Lift car fan working &amp; not noisy</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0133</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the lift car lights are working &amp; not fused</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0134</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Intercom / Emergency buzzer available &amp; in working condition</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0135</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is all the elevators are operational on the day of Audit?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0136</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Lift car inside Paneling &amp; flooring clean &amp; not dmaged</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0137</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fire hose reals are operational without any leakage</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0138</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the fire tank full</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0139</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is all the Pumps ( Jockey/Sprinkler/ Main Hydrant Pump working &amp; pressure maintained in line ) between 2 to 4 KG</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0140</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the refilling &amp; next due date tag available on fire extinguihsres</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0141</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the specified locations having appropriate fire extinguishers</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0142</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the all Fire extinguishers found at its designated place</t>
   </si>
   <si>
     <t xml:space="preserve">Bi-monthly </t>
   </si>
   <si>
+    <t xml:space="preserve">OP0143</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the all fire extinguisher are healthy &amp; not expired</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0144</t>
+  </si>
+  <si>
     <t xml:space="preserve">there are no burning smell &amp; over heating inside the electrical room / Electrical Panel?</t>
   </si>
   <si>
     <t xml:space="preserve">Half yearly </t>
   </si>
   <si>
+    <t xml:space="preserve">OP0145</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is all the light indicators of panel are working &amp; not broken</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0146</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Electrical panel all doors closed properly &amp; not found open</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0147</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Electrical panel &amp; panel room cleaned</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0148</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is DG AMC service reports available &amp; in sync with 52 week service scehdule</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0149</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is DG set B Check done in last one year or within last 300 Hours , which ever is earlier</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0150</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is DG set canopy paint intact &amp; body not rusted</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0151</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is DG set surrounding &amp; Canopy cleaned</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0152</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is DG set engine cleaned &amp; no spillage of diesel near engine</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0153</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is DG set working in Auto mode</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0154</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the First Aid box with adequate medicines is available?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0155</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Security authenticates visitor slips at school and ensures photo clarity in VMS?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0156</t>
+  </si>
+  <si>
     <t xml:space="preserve">Are the Floor wise list of Fire extinguishers with capacity and type is available with security team?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0157</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Night Round Register maintained?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0158</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Contractor employees in / out register Maintained? mainly non regular.</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0159</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Student Release Slip maintained?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0160</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Visitors Pass record available?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0161</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Returnable Goods Returned File maintained?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0162</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Evening Call Register maintained?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0163</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Security Log Book maintained?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0164</t>
+  </si>
+  <si>
     <t xml:space="preserve">is the Security Incident Log Book maintained?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0165</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Vehicle Movement Register maintained?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0166</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Contractor Tools Register maintained?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0167</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Staff Movement Register maintained?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0168</t>
+  </si>
+  <si>
     <t xml:space="preserve">is the Security Outward Register maintained? (Non Returnable)</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0169</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Security Outward Register maintained? (Returnable)</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0170</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Material Inward Register Maintained?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0171</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Key replacement register maintained?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0172</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Key register Maintained &amp; updated?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0173</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the List of Key holders Record available? signed by Admin in charge</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0174</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Availability of master keys with Administrator Available?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0175</t>
+  </si>
+  <si>
     <t xml:space="preserve">Are the Uniforms are Washed &amp; Ironed? </t>
   </si>
   <si>
     <t xml:space="preserve">Professional appearance</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0176</t>
+  </si>
+  <si>
     <t xml:space="preserve">Are Simple Jewellery wearing? (Small ear rings, Mangal sutra, wedding rings)</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0177</t>
+  </si>
+  <si>
     <t xml:space="preserve">is he/she Neatly combed hair? </t>
   </si>
   <si>
+    <t xml:space="preserve">OP0178</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is there Specimen Signatures of all Approving authorities available?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0179</t>
+  </si>
+  <si>
     <t xml:space="preserve">Are Rubber Stamps available?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0180</t>
+  </si>
+  <si>
     <t xml:space="preserve">Are 1 set of keys available?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0181</t>
+  </si>
+  <si>
     <t xml:space="preserve">is Emergency Evacuation Plan available?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0182</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is there Display of Emergency contact available?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0183</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the ID card displayed?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0184</t>
+  </si>
+  <si>
     <t xml:space="preserve">All the Male Securities are properly shaved?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0185</t>
+  </si>
+  <si>
     <t xml:space="preserve">Are all the Security wearing Polished Shoes?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0186</t>
+  </si>
+  <si>
     <t xml:space="preserve">Are the parked vehicles are having adequate authorization of the Admin/Principal?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0187</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Security stationed at their designated location?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0188</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Security Deployment Plan available?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0189</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Cleanliness maintained?</t>
   </si>
   <si>
@@ -881,117 +1451,240 @@
     <t xml:space="preserve">Sick Bay</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0190</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0193</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Incident register/Log book Prperly Maintained &amp; Updated </t>
   </si>
   <si>
+    <t xml:space="preserve">OP0194</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Nurse wearing Lab Coat ( White colour coat) while on duty?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0195</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Sickbay bed (single or Bunker) Available &amp; neatly cleaned</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0196</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Nebulizer machine operational?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0197</t>
+  </si>
+  <si>
     <t xml:space="preserve">is the Footstool available and cleaned?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0198</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Stretcher Available and in good condition?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0199</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Wheel chair available and in working condition?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0200</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Sickbay Uniform available and cleaned?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0201</t>
+  </si>
+  <si>
     <t xml:space="preserve">Are the Mattress Beds available and cleaned?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0202</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Bed sheet available and in cleaned condition?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0203</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Standard Pillow available and cleaned?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0204</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Standard pillow available and cleaned condition?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0205</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Small Pillow (soft for Preprimary) Available &amp; neatly cleaned?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0206</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Blanket/Quilt available and cleaned condition?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0207</t>
+  </si>
+  <si>
     <t xml:space="preserve">Are the Napkins / Hand towels / Small Soft Towel available and cleaned?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0208</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is  the Steel Cupboard ( 3 feet size) Available &amp; neatly cleaned?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0209</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is  the Pair of scissors ( Small) Available?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0210</t>
+  </si>
+  <si>
     <t xml:space="preserve">is the Stethoscope available and Operational?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0211</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Weight Machine available and calibrated?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0212</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Ice Box available?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0213</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Ice gel pack Available?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0214</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Digital Thermometer available and Functional?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0215</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Digital BP instrument available and in Oprational condition?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0216</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Closed Dustbin available ?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0217</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Hot water kettle Available &amp; operational?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0218</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Torch Small (LED) available and in working condition?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0219</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Small Bowl/Basin available and cleaned?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0220</t>
+  </si>
+  <si>
     <t xml:space="preserve">In the Nail Cutter available?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0221</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Hot Water Bag Available?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0222</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the O2 Cylinder (Portable Size) 5 to 10 Litters Available &amp; and Stored at Right Place?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0223</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Oxygen Mask ( Pediatric ) Available &amp; neatly cleaned</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0224</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Distilled water for O2 Cylinder (1 Litter) Available?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0225</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Artery Forceps available?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0226</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Mosquito forceps available?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0227</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Pulse Oximeter available and Operational?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0228</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Room Heater available and opeartional?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0229</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Partition Curtains available, Fixed &amp; cleaned?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0230</t>
+  </si>
+  <si>
     <t xml:space="preserve">Plants are watered &amp; maintained</t>
   </si>
   <si>
@@ -1001,537 +1694,1920 @@
     <t xml:space="preserve">Landscaping &amp; plants</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0231</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lawn is maintained</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0232</t>
+  </si>
+  <si>
     <t xml:space="preserve">Garbage collection arrangement implemented</t>
   </si>
   <si>
     <t xml:space="preserve">Peripheral area</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0233</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Cleanliness of the compound</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0234</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Green net clean &amp; not damaged</t>
   </si>
   <si>
     <t xml:space="preserve">Cricket Pitch</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0235</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Poles are clean &amp; not rusted</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0236</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Cricket Pitch turf clean &amp; not damaged</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0237</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Benches / Seating arrangemnet avaibale for the kids to sit and keep bags</t>
   </si>
   <si>
     <t xml:space="preserve">Football Ground</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0238</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Goal post green net clean &amp; not damaged</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0239</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Goal post clean &amp; not rusted</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0240</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is ground leveled &amp; no accees grass grown</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0241</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cleanliness of the Play area</t>
   </si>
   <si>
     <t xml:space="preserve">Kids play area</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0242</t>
+  </si>
+  <si>
     <t xml:space="preserve">No undulation or obstacle in play area</t>
   </si>
   <si>
     <t xml:space="preserve">Play area</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0243</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Play Equipments fit to use and placed properly?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0244</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Skating Rink side railing clean &amp; not rusted?</t>
   </si>
   <si>
     <t xml:space="preserve">Skating rink</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0245</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Safety padding maintained &amp; not torn</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0246</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Benches / Seating arrangemnet avaibale for the kids to sit and tie the skates.</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0247</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is court marking in good Condition &amp; not faded</t>
   </si>
   <si>
     <t xml:space="preserve">Basket Ball court</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0248</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Surface of the court clean – no cracks and cement deposits.</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0249</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Side drains are closed or not?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0250</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is PP Tiles properly alligned &amp; not damaged?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0251</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Condition of the pole and the board?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0252</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Pole is placed properly or not?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0255</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Pool Filtration plant is accessible &amp; Cleaniness maintained?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0256</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pool primary &amp; secondary Pump are in working condition</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0257</t>
+  </si>
+  <si>
     <t xml:space="preserve">Swimming Pool shower facilities are maintained in a clean and sanitary condition.</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0258</t>
+  </si>
+  <si>
     <t xml:space="preserve">The rest rooms are maintained in a sanitary condition and in good repair.</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0259</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the pool fence enclosure is in good condition &amp; not rusted</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0260</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is there algae growth in the pool.</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0261</t>
+  </si>
+  <si>
     <t xml:space="preserve">Swimming Pool Water level is up to the mark &amp; overflow happening?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0262</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Swimming Pool depth marker tiles are readable &amp; not faded?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0263</t>
+  </si>
+  <si>
     <t xml:space="preserve">Are tiles damaged (Pool Deck)</t>
   </si>
   <si>
     <t xml:space="preserve">Fortnight</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0264</t>
+  </si>
+  <si>
     <t xml:space="preserve">Are tiles damaged (Inside the Pool)</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0265</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is swimming pool clean without any dirt or Debris in the pool</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0266</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the EDC Machine Daily Settlement Reports Files/Record available for Vibgyor? The reports need to handover to accounts.</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0267</t>
+  </si>
+  <si>
     <t xml:space="preserve">Are the Admission Kits Sold report Reconcilled with marketing Kits Sold Report?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0268</t>
+  </si>
+  <si>
     <t xml:space="preserve">Are the Physical Stock record match with Book Stock? (Including Trial pieces) </t>
   </si>
   <si>
     <t xml:space="preserve">Stores &amp; POS</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0269</t>
+  </si>
+  <si>
     <t xml:space="preserve">Are the uniform &amp; shoes exchange/ return record maintained and Stored Separately?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0270</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Canteen coupon sale process is followed? No loose coupons sold at POS.</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0271</t>
+  </si>
+  <si>
     <t xml:space="preserve">Are the Files &amp; Records are kept securely? (Check Day-end sales report &amp; application for duplicate bearer cards.)</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0272</t>
+  </si>
+  <si>
     <t xml:space="preserve">Are the stock movement of material maintained? (Check Canteen coupon- from vertex to school, admission kit - Kare warehouse to school, etc.</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0273</t>
+  </si>
+  <si>
     <t xml:space="preserve">Are the Cancelled transaction of Edulearn &amp; TALLY is being shared with accounts by EOD everyday through mail &amp; day end sale report?</t>
   </si>
   <si>
     <t xml:space="preserve">Fornight</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0274</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Special size uniform data maintained properly?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0275</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Reconcilation record of Physical stock of POS - Printing &amp; Stationery ( Admission Kit , Canteen coupons, VIVA passes, Lanyards, Bearer cards, class photographs) tallies with the TALLY stock Available?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0276</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the admission kit numbering is done properly and register is being maintain (Softcopy)?. Also maintan stock of the same for selling at POS.</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0277</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the physical Random stock verificatioin for sub stores found satisfactory? (TOYS, Sick bay only)</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0278</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Monthly inventory checking (fast moving items, slow moving items, average consumpation sku wise ) of store &amp; share signed store health report with analysis to Vertex is being maintained?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0279</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is there any Negative stock review with justification VK, VH, VO, VI found?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0280</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is there any Non Inventory" items lying under stores custody and is the list Available for the same?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0281</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is there PO preclosing record in system by last day of month against which services are not availed/material not procured, except blanket workorder / purchase order?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0282</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is there Consumption entries of current month being maintained? Should not carry forwarded to the next month. Appropriate Cost centers are to be allocated.</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0283</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the physical verification of the Printing &amp; Stationery Stock tallies with the system Stock?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0284</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Buffer stock of student Kit maintained at the school tallies with the system Stock. Level of buffer stock - PP to Gr. 7 = 3 Nos., Grade 8 to 10 = 1 No.</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0285</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the physical verificaion VK / VO/ VH / VI Admission form Stock tallies with the Tally Stock?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0286</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Canteen Coupons Physical Stock Tallies with the system Stock?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0287</t>
+  </si>
+  <si>
     <t xml:space="preserve">Are the Stores material stacked properly on racks?  All Racks are labelled / numbered. Loose material are kept in Bins or plastic crates.</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0288</t>
+  </si>
+  <si>
     <t xml:space="preserve">Are the Indent, GRN and Duplicate Invoice Files being maintained?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0289</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Monthly report of Vendor wise "Purchase Bill Pending" with justification maintained? Detailed records to be shared with Vertex &amp; Center Admin.</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0290</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the inward of material and the GRN is booked? TAT(24 Hrs) at the store</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0291</t>
+  </si>
+  <si>
     <t xml:space="preserve">Are the documents as per finance checklist are prepared? Bill processing.</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0292</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Returnable Goods Returned File maintained? Not received report is submitted to School Admin and Vertex Admin on monthly basis.</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0293</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the material requisition / indent slip are sequentially filed? Post passing consumption entries.</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0294</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Indent process maintained? Twice in a month - Approved indent received at store on 07th &amp; 22nd day of the month by other department.</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0295</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Par stock maintain as per the process defined in system?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0296</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Updated Empanneled Vendor List along with their approved rates, is maintained by stores in charge?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0297</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is all Ancillaries staff Personal profile maintained ?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0298</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is all Ancillaries staff ID card displayed ?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0299</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Toys displayed on discovery table as per logic list</t>
   </si>
   <si>
     <t xml:space="preserve">Discovery Room</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0300</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Marketing content vinyl displayed on discovery table , clean &amp; not Torn</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0301</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is school SPA matertial displayed on discovery table as per the Logic List</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0302</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is school essentials displayed on discovery table as per applicable grades of school for Next academic year</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0303</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is FOBO AC working &amp; temp. Maintained</t>
   </si>
   <si>
     <t xml:space="preserve">FOBO</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0304</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is all lights in FOBO are in working condition</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0305</t>
+  </si>
+  <si>
     <t xml:space="preserve">is all glass doors clean &amp; in working condition without any noise at FOBO area?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0306</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Site MAP avaialable , clean &amp; not torn at FOBO Area?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0307</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Meeting room setup organized and clean</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0308</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Mission Frame avaiable , clean &amp; not torn</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0309</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is wall of Fame / Trophies &amp; awards , avaiable &amp; clean</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0310</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Manequen available with latest School uniform including shoes and bag</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0311</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is FOBO Vibgyor signage clean</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0312</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is FOBO Vibgyor signage available</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0313</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is TV/Digital display working &amp; alligned properly towards Visiter seating</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0314</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Drinking water dispenser available in FOBO along with Waste water bucket</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0315</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Tea Facility available in FOBO</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0316</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is all chairs in FOBO are executive chairs</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0317</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is FOBO Desk organized , doesn’t have any unwanted stuff kept on it</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0318</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is FOBO Sofa's clean &amp; Fabric not torn</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0319</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is FOBO entrace clean and well maintained</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0320</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is security gate clean &amp; painted , doesn’t have rust marks on it</t>
   </si>
   <si>
     <t xml:space="preserve">External periphery</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0321</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Entrace gate approch road inside prenises intact &amp; has no undulation</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0322</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is walkway / pathway intact and not damaged</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0323</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is pedestrian pathway clean &amp; curb stone are painted</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0324</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Fencing painted and doesn’t have rust marks on it</t>
   </si>
   <si>
     <t xml:space="preserve">Terrace</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0325</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Fencing clean without any vegetation &amp; creepers on it</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0326</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Fencing around building premises intact and not damaged</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0327</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Boundry wall clean without any vegetation &amp; creepers on it</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0328</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is there any scrap material lying on terrace</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0329</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is there any shaft open on terrace without any louvers / door</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0330</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0331</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the overhead water tank clean, tank lids are fixed properly and not loose</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0332</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the terrace waterpffing intact and doesn’t have surfecial damage</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0333</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Terrace clean and all storm drain discharge points are clear without any dust / muck</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0334</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Terrace entrace free from obstackes</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0335</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Terrace entry door locked</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0336</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Nonslip surfaces on the Ramps</t>
   </si>
   <si>
     <t xml:space="preserve">Corridors &amp; Staircase</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0337</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Stair case hand rail not loose/ruste , cleaned</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0338</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Antiskid groove / tape placed ,in good condition</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0339</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Proper Lighting with all lights working at Corridors &amp; Staircase?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0340</t>
+  </si>
+  <si>
     <t xml:space="preserve">walkway is safe and have no loose hanging wire</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0341</t>
+  </si>
+  <si>
     <t xml:space="preserve">Availability of pest control service report as per Agreed terms in contract</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0342</t>
+  </si>
+  <si>
     <t xml:space="preserve">is there Availability of rat trap at identified location?</t>
   </si>
   <si>
     <t xml:space="preserve">Pest Control</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0343</t>
+  </si>
+  <si>
     <t xml:space="preserve">Availability of PPE &amp; safety signage</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0344</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is There Availability of MSDS sheets for chemicals used?</t>
   </si>
   <si>
     <t xml:space="preserve">Manpower Vendor performance</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0345</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Trimmed Nails Observed of all Support Staff?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0346</t>
+  </si>
+  <si>
     <t xml:space="preserve">HK Material Register/ Tracker</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0347</t>
+  </si>
+  <si>
     <t xml:space="preserve">MOM of HK staff &amp; Vendor Performance review meeting</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0348</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cleaning Activity Schedule</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0349</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is HK staff Training schedule &amp; Implemented?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0350</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is HK Deployment Plan Available?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0351</t>
+  </si>
+  <si>
     <t xml:space="preserve">Whether FOBO Vibgyor signage lights are working </t>
   </si>
   <si>
+    <t xml:space="preserve">OP0352</t>
+  </si>
+  <si>
     <t xml:space="preserve">are the Other Library Tables - Single Seater Available?</t>
   </si>
   <si>
     <t xml:space="preserve">Movable assets / Consumable</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0353</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Ss Rack Available?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0354</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Cupboard - Wooden - Glass Door Library Available?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0355</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Map Stand Available?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0356</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Magazine Stand Available?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0357</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Lib Credenza Available?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0358</t>
+  </si>
+  <si>
     <t xml:space="preserve">Are the Puffies Available and placed?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0359</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the FH Storage Library Available?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0360</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the LH Storage Library Available?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0361</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Staff ERP Table Available?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0362</t>
+  </si>
+  <si>
     <t xml:space="preserve">Are the Yellow Chairs Available?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0363</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Library Small Table Available?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0364</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Library Big Table Available?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0365</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Teacher's Chair Available?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0366</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is the Librarian Desk Available?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0367</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is IFP working Properly in all Divisions</t>
   </si>
   <si>
     <t xml:space="preserve">Fixed Assets</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0368</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is AC Working in all Divisions</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0369</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is all adjustable table clean in all Divisions?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0370</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is all adjjustable table top okay without any damage in all Divisions?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0371</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is all Chairs okay without any damage in all divisions?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0372</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is all Windows/ Grills functioning properly in all divisions?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0373</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is all Fans Working Properly in all divisions?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0374</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is all Lights Working Properly in all divisions?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0375</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is all electrical Switch Board intact, not loose, aligned properly in all divisions ?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0376</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Pull Down Screen Intact , clean , not damaged?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0377</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is all Piegion hole placed properly,clean &amp; maintained?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0378</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is all Lockers placed properly,clean &amp; maintained?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0379</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Reading Rack available &amp; Maintained ?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0380</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Door Signage holder placed as per approved Template</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0381</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is 4 Soft Baords installed inside class room &amp; 2 outside in passage?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0382</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Teacher Cupboard clean, not damaged </t>
   </si>
   <si>
+    <t xml:space="preserve">OP0383</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Artistic painting/vinyl/Board intact not damage in all divisions?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0384</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is all Window blinds/Curtains clean in all divisions?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0385</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Projector working Properly in all Divisions</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0390</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0430</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0440</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0450</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0460</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0470</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0480</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0490</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0510</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0520</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0530</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0540</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0550</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0560</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0570</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0580</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0583</t>
+  </si>
+  <si>
     <t xml:space="preserve">PS</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0590</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0601</t>
+  </si>
+  <si>
     <t xml:space="preserve">NUR</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0610</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0619</t>
+  </si>
+  <si>
     <t xml:space="preserve">JR KG</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0620</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0630</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0637</t>
+  </si>
+  <si>
     <t xml:space="preserve">SR KG</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0640</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0650</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0655</t>
+  </si>
+  <si>
     <t xml:space="preserve">SEC ELEC ROOM</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0660</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0670</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0673</t>
+  </si>
+  <si>
     <t xml:space="preserve">PRI  ELEC ROOM</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0680</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0690</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0691</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is HK Material kept in Cupboard/ Mori area, not outside visible when not in use ?</t>
   </si>
   <si>
@@ -1541,79 +3617,487 @@
     <t xml:space="preserve">Girls</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0692</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Soap Dispenser available and filled ?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0693</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Dustbin placed and lid closed?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0694</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Room freshner Available and effective?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0695</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Wash Basin clean and water flows freely?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0696</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Western commode clean ?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0697</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Health faucet placed properly on bracket holder ?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0698</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is all lights working inside Restroom?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0699</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is all exhaust fan working inside Restroom?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0700</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is floor tiles intact and not damage?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0701</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is wall clean without any seepage/ fungal marks?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0702</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is all Window clean and not damage?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0703</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Water Bay / Water cooler clean ?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0704</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Mirrors clean without any spots on it ?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0705</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is all Taps clean without any spots on it ?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0706</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is all Taps working properly without any water leakage ?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0707</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is all Taps water pressure adequete and no waste of water due to excessive pressure ?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0708</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is FHHC Unit Kept &amp; Waste Disposed on weekly basis?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0709</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Door functioning properly and closing slowly ?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0710</t>
+  </si>
+  <si>
     <t xml:space="preserve">Boys</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0716</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Flush system working properly?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0717</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is Urinals clean and water flows freely?</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0720</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0730</t>
+  </si>
+  <si>
     <t xml:space="preserve">Staff Rest Room Her</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0740</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0749</t>
+  </si>
+  <si>
     <t xml:space="preserve">Staff Rest Room His</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0750</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0760</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0769</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ancillary Rest Room Her</t>
   </si>
   <si>
+    <t xml:space="preserve">OP0770</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0780</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0788</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ancillary Rest Room His</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0790</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0810</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0820</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP0827</t>
   </si>
 </sst>
 </file>